--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_nick</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate_order</t>
-  </si>
-  <si>
-    <t>product_order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -474,15 +484,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="A2:A7 D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,17 +527,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -535,44 +545,44 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -580,21 +590,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -609,35 +627,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -654,7 +672,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -671,7 +689,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -688,7 +706,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -705,7 +723,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -722,7 +740,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
@@ -740,7 +758,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -755,32 +773,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -794,7 +812,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -808,7 +826,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -822,7 +840,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -836,7 +854,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -850,7 +868,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +882,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +896,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +910,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +924,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -920,7 +938,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -934,7 +952,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -948,7 +966,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -963,7 +981,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -978,32 +996,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -1017,7 +1035,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1045,7 +1063,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1073,7 +1091,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1087,7 +1105,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1101,7 +1119,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1115,7 +1133,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1185,7 +1203,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1199,7 +1217,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1231,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1255,7 +1273,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1269,7 +1287,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1284,7 +1302,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1299,73 +1317,73 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="A2:A7 D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="A5:B5 D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1376,19 +1394,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1399,22 +1417,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1425,16 +1443,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1445,19 +1463,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1468,22 +1486,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1494,10 +1512,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1508,10 +1526,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1522,10 +1540,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1536,10 +1554,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1550,10 +1568,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1564,10 +1582,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1578,10 +1596,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1593,7 +1611,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1608,83 +1626,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1749,7 +1767,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1814,7 +1832,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1879,7 +1897,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1944,7 +1962,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2009,7 +2027,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2074,7 +2092,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2139,7 +2157,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2204,7 +2222,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2269,7 +2287,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2334,7 +2352,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2399,7 +2417,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2464,7 +2482,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2530,7 +2548,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2545,41 +2563,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:A7 B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2596,10 +2614,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2616,10 +2634,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2636,10 +2654,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2656,10 +2674,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2676,10 +2694,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2696,10 +2714,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2716,10 +2734,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2736,10 +2754,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2756,10 +2774,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2776,10 +2794,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2796,10 +2814,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2816,10 +2834,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2836,10 +2854,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2856,10 +2874,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2876,10 +2894,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2896,10 +2914,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2916,10 +2934,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2936,10 +2954,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2956,10 +2974,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2977,7 +2995,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2992,38 +3010,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="A2:A7 G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="A5:B5 G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3034,10 +3052,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3048,10 +3066,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3062,10 +3080,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3076,10 +3094,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3090,10 +3108,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3104,10 +3122,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3118,10 +3136,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3132,10 +3150,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3146,10 +3164,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3160,10 +3178,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3174,10 +3192,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3188,10 +3206,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3203,7 +3221,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3218,89 +3236,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3315,124 +3333,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3447,124 +3465,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3579,29 +3597,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3612,7 +3630,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3634,7 +3652,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3645,7 +3663,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3656,7 +3674,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3667,7 +3685,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3678,7 +3696,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3689,7 +3707,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3700,7 +3718,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3711,7 +3729,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3740,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3733,7 +3751,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3745,7 +3763,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3760,29 +3778,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3793,7 +3811,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3822,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3815,7 +3833,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3826,7 +3844,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3837,7 +3855,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3848,7 +3866,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3859,7 +3877,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3870,7 +3888,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3881,7 +3899,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3892,7 +3910,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3903,7 +3921,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3914,7 +3932,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3943,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3954,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3947,7 +3965,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3958,7 +3976,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3969,7 +3987,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3980,7 +3998,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3991,7 +4009,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -4003,7 +4021,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_nick</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -484,10 +466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,24 +485,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -579,6 +561,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -588,27 +573,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -628,7 +595,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,24 +605,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -672,7 +639,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -689,7 +656,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -706,7 +673,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -723,7 +690,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -740,7 +707,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
@@ -774,7 +741,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,21 +751,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -812,7 +779,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -826,7 +793,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -840,7 +807,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -854,7 +821,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -868,7 +835,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +849,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +863,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +877,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -924,7 +891,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -938,7 +905,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -952,7 +919,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -966,7 +933,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -997,7 +964,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,21 +974,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -1035,7 +1002,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1016,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1063,7 +1030,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1044,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1058,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1105,7 +1072,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1119,7 +1086,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1133,7 +1100,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1147,7 +1114,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1161,7 +1128,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1175,7 +1142,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1189,7 +1156,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1203,7 +1170,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1184,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1198,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1245,7 +1212,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1259,7 +1226,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1273,7 +1240,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1287,7 +1254,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1318,7 +1285,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="A5:B5 D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="B3 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,64 +1293,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1394,19 +1361,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1417,22 +1384,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1443,16 +1410,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1463,19 +1430,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1486,22 +1453,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1512,10 +1479,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1526,10 +1493,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1540,10 +1507,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1554,10 +1521,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1568,10 +1535,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1582,10 +1549,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1596,10 +1563,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1627,7 +1594,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1637,72 +1604,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1767,7 +1734,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1832,7 +1799,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1897,7 +1864,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1962,7 +1929,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2027,7 +1994,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2092,7 +2059,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2157,7 +2124,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2222,7 +2189,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2287,7 +2254,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2352,7 +2319,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2417,7 +2384,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2482,7 +2449,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2561,434 +2528,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,214 +2850,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="A5:B5 G15"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3038,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3247,72 +3048,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3135,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3344,107 +3145,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3267,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3476,107 +3277,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3399,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3608,18 +3409,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3630,7 +3431,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3641,7 +3442,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3652,7 +3453,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3663,7 +3464,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3674,7 +3475,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3685,7 +3486,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3696,7 +3497,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3707,7 +3508,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3718,7 +3519,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3729,7 +3530,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3740,7 +3541,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3751,7 +3552,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3779,7 +3580,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3789,18 +3590,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3811,7 +3612,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3822,7 +3623,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3833,7 +3634,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3844,7 +3645,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3855,7 +3656,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3866,7 +3667,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3877,7 +3678,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3888,7 +3689,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3899,7 +3700,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3910,7 +3711,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3921,7 +3722,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3932,7 +3733,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3943,7 +3744,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3954,7 +3755,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3965,7 +3766,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3976,7 +3777,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3987,7 +3788,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3998,7 +3799,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -4009,7 +3810,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +595,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,7 +741,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,7 +964,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="B3 D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2531,7 +2531,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3038,7 +3038,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3135,7 +3135,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3267,7 +3267,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3399,7 +3399,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3580,7 +3580,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -428,7 +425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,10 +436,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -468,7 +461,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -605,19 +598,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,16 +744,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,16 +967,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,40 +1293,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,13 +1334,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1364,16 +1357,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1387,16 +1380,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1413,13 +1406,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1433,16 +1426,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1456,16 +1449,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1482,7 +1475,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1496,7 +1489,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1510,7 +1503,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1524,7 +1517,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1538,7 +1531,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1552,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1566,7 +1559,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2528,16 +2521,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,9 +2543,6 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2564,9 +2554,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2578,9 +2565,6 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2592,9 +2576,6 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2606,9 +2587,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2620,9 +2598,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2634,9 +2609,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2648,9 +2620,6 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2662,9 +2631,6 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2676,9 +2642,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2690,9 +2653,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2704,9 +2664,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2718,9 +2675,6 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2732,9 +2686,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2746,9 +2697,6 @@
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -2760,9 +2708,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -2774,9 +2719,6 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -2788,9 +2730,6 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -2802,9 +2741,6 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -2816,9 +2752,6 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -2828,9 +2761,6 @@
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2867,13 +2797,13 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3075,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3207,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,13 +3339,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,13 +3520,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -585,152 +584,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>4.0829462385141</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4.0829462385141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.21410377655987E-010</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1.21410377655987E-010</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.84127891703472E-008</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.84127891703472E-008</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1.65622684914216E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1.65622684914216E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2.35376773094737E-010</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.35376773094737E-010</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -949,7 +802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1270,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2523,7 +2376,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2965,9 +2818,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2978,72 +2831,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3194,138 +3082,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3502,7 +3258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3758,4 +3514,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-81.4547774583559</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4.0829462385141</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-81.4547774583559</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4.0829462385141</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>18.5183721041727</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7.99594430470695E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>18.5183721041727</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>7.99594430470695E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.431738943043251</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.21410377655987E-010</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.431738943043251</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.21410377655987E-010</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.567354685137039</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.84127891703472E-008</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.567354685137039</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.84127891703472E-008</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>85.3794767878033</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.65622684914216E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>85.3794767878033</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.65622684914216E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.103545682502924</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.35376773094737E-010</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.103545682502924</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2.35376773094737E-010</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_nick.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -460,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,64 +522,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -587,7 +614,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -597,21 +624,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -625,7 +652,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -639,7 +666,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -653,7 +680,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -667,7 +694,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -681,7 +708,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -695,7 +722,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -709,7 +736,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -723,7 +750,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -737,7 +764,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -751,7 +778,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -765,7 +792,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -779,7 +806,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -810,7 +837,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -820,21 +847,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -848,7 +875,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -862,7 +889,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -876,7 +903,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +917,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -904,7 +931,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -918,7 +945,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -932,7 +959,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -946,7 +973,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -960,7 +987,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -974,7 +1001,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -988,7 +1015,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1002,7 +1029,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1016,7 +1043,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1030,7 +1057,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1044,7 +1071,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1058,7 +1085,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1072,7 +1099,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1086,7 +1113,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1100,7 +1127,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1131,7 +1158,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="A6:B7 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,57 +1173,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1207,19 +1234,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1230,22 +1257,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1256,16 +1283,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1276,19 +1303,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1299,22 +1326,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1325,10 +1352,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1339,10 +1366,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1353,10 +1380,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1367,10 +1394,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1381,10 +1408,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1395,10 +1422,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1409,10 +1436,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1440,7 +1467,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,72 +1477,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1580,7 +1607,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1645,7 +1672,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1710,7 +1737,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1775,7 +1802,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1840,7 +1867,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1905,7 +1932,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1970,7 +1997,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2035,7 +2062,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2100,7 +2127,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2165,7 +2192,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2230,7 +2257,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2295,7 +2322,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2377,7 +2404,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2388,21 +2415,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2410,10 +2437,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2421,10 +2448,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2432,10 +2459,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2443,10 +2470,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2454,10 +2481,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2465,10 +2492,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2476,10 +2503,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2487,10 +2514,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2498,10 +2525,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2509,10 +2536,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2520,10 +2547,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2531,10 +2558,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2542,10 +2569,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2553,10 +2580,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2564,10 +2591,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2575,10 +2602,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2586,10 +2613,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2597,10 +2624,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2608,10 +2635,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2636,7 +2663,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2647,24 +2674,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2672,10 +2699,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2683,10 +2710,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2694,10 +2721,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2705,10 +2732,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2716,10 +2743,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2727,10 +2754,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2738,10 +2765,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2749,10 +2776,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2760,10 +2787,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2771,10 +2798,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2782,10 +2809,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2793,10 +2820,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2820,8 +2847,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,107 +2858,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2980,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2963,107 +2990,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3112,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3095,18 +3122,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3117,7 +3144,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3128,7 +3155,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3139,7 +3166,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3150,7 +3177,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3161,7 +3188,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3172,7 +3199,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3183,7 +3210,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3194,7 +3221,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3205,7 +3232,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3216,7 +3243,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3227,7 +3254,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3238,7 +3265,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3266,7 +3293,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3276,18 +3303,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3298,7 +3325,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3309,7 +3336,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3320,7 +3347,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3331,7 +3358,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3342,7 +3369,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3353,7 +3380,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3364,7 +3391,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3375,7 +3402,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3386,7 +3413,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3397,7 +3424,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3408,7 +3435,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3419,7 +3446,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3430,7 +3457,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3441,7 +3468,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3452,7 +3479,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3463,7 +3490,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3474,7 +3501,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3485,7 +3512,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3496,7 +3523,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3524,7 +3551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3534,24 +3561,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3568,7 +3595,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -3585,7 +3612,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3602,7 +3629,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3619,7 +3646,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3636,7 +3663,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
